--- a/Figures/Final Figures/Error calc.xlsx
+++ b/Figures/Final Figures/Error calc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Residency\Research\FIDs Study\Github\afids_parkinsons\Figures\Final Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\GitHub\afids_parkinsons\Figures\Final Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2450E77-E1AC-43F8-9210-77E84324B5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32500E5B-B512-40AD-8AA8-E977936193FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18484CF3-349D-466C-A8F4-E3C083C98DEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{18484CF3-349D-466C-A8F4-E3C083C98DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="AFLE" sheetId="1" r:id="rId1"/>
     <sheet name="AFRE" sheetId="2" r:id="rId2"/>
     <sheet name="Distances (Sig)" sheetId="3" r:id="rId3"/>
+    <sheet name="ICC" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="70">
   <si>
     <t>FID</t>
   </si>
@@ -96,13 +97,174 @@
   <si>
     <t>Abs % Dist</t>
   </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Fiducial</t>
+  </si>
+  <si>
+    <t>Fiducial Name</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Infracollicular sulcus</t>
+  </si>
+  <si>
+    <t>PMJ</t>
+  </si>
+  <si>
+    <t>Superior interpeduncular fossa</t>
+  </si>
+  <si>
+    <t>R superior LMS</t>
+  </si>
+  <si>
+    <t>L superior LMS</t>
+  </si>
+  <si>
+    <t>R inferior LMS</t>
+  </si>
+  <si>
+    <t>L inferior LMS</t>
+  </si>
+  <si>
+    <t>Culmen</t>
+  </si>
+  <si>
+    <t>Intermammillary sulcus</t>
+  </si>
+  <si>
+    <t>R MB</t>
+  </si>
+  <si>
+    <t>L MB</t>
+  </si>
+  <si>
+    <t>Pineal gland</t>
+  </si>
+  <si>
+    <t>R LV at AC</t>
+  </si>
+  <si>
+    <t>L LV at AC</t>
+  </si>
+  <si>
+    <t>R LV at PC</t>
+  </si>
+  <si>
+    <t>L LV at PC</t>
+  </si>
+  <si>
+    <t>Genu of CC</t>
+  </si>
+  <si>
+    <t>Splenium</t>
+  </si>
+  <si>
+    <t>R AL temporal horn</t>
+  </si>
+  <si>
+    <t>L AL temporal horn</t>
+  </si>
+  <si>
+    <t>R superior AM temporal horn</t>
+  </si>
+  <si>
+    <t>L superior AM temporal horn</t>
+  </si>
+  <si>
+    <t>R inferior AM temporal horn</t>
+  </si>
+  <si>
+    <t>L inferior AM temporal horn</t>
+  </si>
+  <si>
+    <t>R indusium griseum origin</t>
+  </si>
+  <si>
+    <t>L indusium griseum origin</t>
+  </si>
+  <si>
+    <t>R ventral occipital horn</t>
+  </si>
+  <si>
+    <t>L ventral occipital horn</t>
+  </si>
+  <si>
+    <t>R olfactory sulcal fundus</t>
+  </si>
+  <si>
+    <t>L olfactory sulcal fundus</t>
+  </si>
+  <si>
+    <t>Sig</t>
+  </si>
+  <si>
+    <t>Expert SD</t>
+  </si>
+  <si>
+    <t>Expert Mean</t>
+  </si>
+  <si>
+    <t>Novice Mean</t>
+  </si>
+  <si>
+    <t>Novice SD</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Dist-MCP</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Novice</t>
+  </si>
+  <si>
+    <t>Mean (xyz)</t>
+  </si>
+  <si>
+    <t>Expert ICC</t>
+  </si>
+  <si>
+    <t>Novice ICC</t>
+  </si>
+  <si>
+    <t>All Rater ICC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -118,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,13 +288,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2419,15 +2616,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22304D9-F8AF-4C40-BA43-F70F61C76FD7}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" customWidth="1"/>
+    <col min="18" max="19" width="3.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2452,8 +2659,32 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2479,8 +2710,43 @@
       <c r="I2">
         <v>0.77936402113254299</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7">
+        <f>AVERAGE(C2:D2)</f>
+        <v>0.53610110872864747</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.38312214019546398</v>
+      </c>
+      <c r="O2" s="7">
+        <f>AVERAGE(B2,E2:F2)</f>
+        <v>0.80669720124559863</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.94279548794095303</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>7.1287483890813399E-4</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2506,8 +2772,34 @@
       <c r="I3">
         <v>0.34459457873041599</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7">
+        <f>AVERAGE(C3:D3)</f>
+        <v>0.40558791838241204</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.20223681173104999</v>
+      </c>
+      <c r="O3" s="7">
+        <f>AVERAGE(B3,E3:F3)</f>
+        <v>0.65277395188531473</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.383133736588535</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>9.8800272363300893E-8</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2533,8 +2825,34 @@
       <c r="I4">
         <v>0.690873856398868</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="7">
+        <f>AVERAGE(C4:D4)</f>
+        <v>0.91989989601705902</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.447893695050741</v>
+      </c>
+      <c r="O4" s="7">
+        <f>AVERAGE(B4,E4:F4)</f>
+        <v>1.1488217126260913</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.802464195287101</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.35742825110037E-3</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2560,8 +2878,34 @@
       <c r="I5">
         <v>0.45933425684756002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <f>AVERAGE(C5:D5)</f>
+        <v>0.85722355785603543</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.39254734624474702</v>
+      </c>
+      <c r="O5" s="7">
+        <f>AVERAGE(B5,E5:F5)</f>
+        <v>1.02957037143301</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.48845596481244602</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>4.3490910141744596E-3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2587,8 +2931,34 @@
       <c r="I6">
         <v>0.77196869730478501</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="7">
+        <f>AVERAGE(C6:D6)</f>
+        <v>1.5990112809029751</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.82898494447594295</v>
+      </c>
+      <c r="O6" s="7">
+        <f>AVERAGE(B6,E6:F6)</f>
+        <v>1.15780039318983</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.67966438946140395</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>8.4098529233462308E-6</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2614,8 +2984,34 @@
       <c r="I7">
         <v>0.79886283686315196</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="5">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
+        <f>AVERAGE(C7:D7)</f>
+        <v>1.3549642419595149</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.79566761041447298</v>
+      </c>
+      <c r="O7" s="7">
+        <f>AVERAGE(B7,E7:F7)</f>
+        <v>1.4392004313338564</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.80262231930158101</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.42704261966989598</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2641,8 +3037,34 @@
       <c r="I8">
         <v>0.91581291377142604</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7">
+        <f>AVERAGE(C8:D8)</f>
+        <v>1.5509156483268298</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.85770324115043695</v>
+      </c>
+      <c r="O8" s="7">
+        <f>AVERAGE(B8,E8:F8)</f>
+        <v>1.4250466394127932</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.95286999629163605</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.220620764715597</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2668,8 +3090,34 @@
       <c r="I9">
         <v>0.97364460845771295</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="5">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <f>AVERAGE(C9:D9)</f>
+        <v>1.6077079101572949</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.75255159798558502</v>
+      </c>
+      <c r="O9" s="7">
+        <f>AVERAGE(B9,E9:F9)</f>
+        <v>1.9871060464187265</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.07304200605241</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>6.4338556236931896E-3</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2695,8 +3143,34 @@
       <c r="I10">
         <v>1.0237693201579501</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="5">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7">
+        <f>AVERAGE(C10:D10)</f>
+        <v>1.67878233505661</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.903906255135422</v>
+      </c>
+      <c r="O10" s="7">
+        <f>AVERAGE(B10,E10:F10)</f>
+        <v>1.9353106644862832</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1.0881008569208599</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>4.0214832769826202E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2722,8 +3196,34 @@
       <c r="I11">
         <v>1.00568635980312</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="5">
+        <v>10</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="7">
+        <f>AVERAGE(C11:D11)</f>
+        <v>1.35289486103838</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.81982716986859305</v>
+      </c>
+      <c r="O11" s="7">
+        <f>AVERAGE(B11,E11:F11)</f>
+        <v>1.8555322997627568</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.0693046626641101</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1.13554430538405E-5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2749,8 +3249,34 @@
       <c r="I12">
         <v>0.41849192684506897</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="5">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="7">
+        <f>AVERAGE(C12:D12)</f>
+        <v>0.63779646002985446</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.44228533550385801</v>
+      </c>
+      <c r="O12" s="7">
+        <f>AVERAGE(B12,E12:F12)</f>
+        <v>0.77837157530668266</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.39379888677049302</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>4.8348824622602799E-3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2776,8 +3302,34 @@
       <c r="I13">
         <v>0.44781276947598397</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="7">
+        <f>AVERAGE(C13:D13)</f>
+        <v>0.77919554194200347</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.431442986283959</v>
+      </c>
+      <c r="O13" s="7">
+        <f>AVERAGE(B13,E13:F13)</f>
+        <v>0.86903178441753237</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.45668710520140399</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>3.2679627761151603E-2</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2803,8 +3355,34 @@
       <c r="I14">
         <v>0.47043484769697902</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="5">
+        <v>13</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="7">
+        <f>AVERAGE(C14:D14)</f>
+        <v>0.85438275742715142</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.41607634454605402</v>
+      </c>
+      <c r="O14" s="7">
+        <f>AVERAGE(B14,E14:F14)</f>
+        <v>0.82118103064522663</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.50473740121958799</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.41242453937093598</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2830,8 +3408,34 @@
       <c r="I15">
         <v>0.75712313773375695</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="5">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="7">
+        <f>AVERAGE(C15:D15)</f>
+        <v>1.405315889038965</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.740743003017862</v>
+      </c>
+      <c r="O15" s="7">
+        <f>AVERAGE(B15,E15:F15)</f>
+        <v>1.53165907469032</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.76682682274795599</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.22795465024349701</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2857,8 +3461,34 @@
       <c r="I16">
         <v>2.4587135991272202</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="5">
+        <v>15</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="7">
+        <f>AVERAGE(C16:D16)</f>
+        <v>1.32148402017079</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.95146791567797295</v>
+      </c>
+      <c r="O16" s="7">
+        <f>AVERAGE(B16,E16:F16)</f>
+        <v>2.738127563676763</v>
+      </c>
+      <c r="P16" s="7">
+        <v>2.9495083185461199</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>9.0179324391528195E-8</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2884,8 +3514,34 @@
       <c r="I17">
         <v>2.5279874720893201</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="5">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="7">
+        <f>AVERAGE(C17:D17)</f>
+        <v>1.4310140060888901</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.95946039151836404</v>
+      </c>
+      <c r="O17" s="7">
+        <f>AVERAGE(B17,E17:F17)</f>
+        <v>2.933271253194377</v>
+      </c>
+      <c r="P17" s="7">
+        <v>3.0276017668533801</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>5.7267547769429304E-9</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2911,8 +3567,34 @@
       <c r="I18">
         <v>1.76813331558597</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="5">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7">
+        <f>AVERAGE(C18:D18)</f>
+        <v>1.2961070464143849</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.801952247729385</v>
+      </c>
+      <c r="O18" s="7">
+        <f>AVERAGE(B18,E18:F18)</f>
+        <v>2.0172792859160467</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2.14283150886427</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>5.2256721028993302E-5</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2938,8 +3620,34 @@
       <c r="I19">
         <v>1.12407132020017</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="5">
+        <v>18</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <f>AVERAGE(C19:D19)</f>
+        <v>1.16417621167265</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.59917237807148105</v>
+      </c>
+      <c r="O19" s="7">
+        <f>AVERAGE(B19,E19:F19)</f>
+        <v>1.6520772571638798</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1.3337199997382101</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1.37981221125172E-5</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2965,8 +3673,34 @@
       <c r="I20">
         <v>0.85512108463943803</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="5">
+        <v>19</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="7">
+        <f>AVERAGE(C20:D20)</f>
+        <v>0.96055857955364199</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.56273278095447499</v>
+      </c>
+      <c r="O20" s="7">
+        <f>AVERAGE(B20,E20:F20)</f>
+        <v>1.2230482412670234</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.99243262994113701</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>3.2339281264819899E-3</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2992,8 +3726,34 @@
       <c r="I21">
         <v>0.85539635377669299</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="5">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="7">
+        <f>AVERAGE(C21:D21)</f>
+        <v>0.97737735022517158</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.442322905514002</v>
+      </c>
+      <c r="O21" s="7">
+        <f>AVERAGE(B21,E21:F21)</f>
+        <v>1.4721747131441834</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.99752956907582202</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>4.1915618156139498E-7</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3019,8 +3779,34 @@
       <c r="I22">
         <v>1.20690737372607</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="5">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="7">
+        <f>AVERAGE(C22:D22)</f>
+        <v>1.3868327875849351</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.84453431804086698</v>
+      </c>
+      <c r="O22" s="7">
+        <f>AVERAGE(B22,E22:F22)</f>
+        <v>1.6362738143556168</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1.3919536386959399</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>8.3220077486968302E-2</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3046,8 +3832,34 @@
       <c r="I23">
         <v>1.53344543963628</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="5">
+        <v>22</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="7">
+        <f>AVERAGE(C23:D23)</f>
+        <v>1.4759238971899851</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.99671577229096198</v>
+      </c>
+      <c r="O23" s="7">
+        <f>AVERAGE(B23,E23:F23)</f>
+        <v>2.0010339182749233</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1.7781784007825601</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>5.6385688965801999E-3</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3073,8 +3885,34 @@
       <c r="I24">
         <v>1.3454132038853801</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="5">
+        <v>23</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="7">
+        <f>AVERAGE(C24:D24)</f>
+        <v>1.4469450993088051</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.88633182556843404</v>
+      </c>
+      <c r="O24" s="7">
+        <f>AVERAGE(B24,E24:F24)</f>
+        <v>1.77720401835306</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1.56902127682666</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>8.7939700887063096E-3</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3100,8 +3938,34 @@
       <c r="I25">
         <v>1.5211746851860599</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="5">
+        <v>24</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="7">
+        <f>AVERAGE(C25:D25)</f>
+        <v>1.5585963809084951</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1.30504172689322</v>
+      </c>
+      <c r="O25" s="7">
+        <f>AVERAGE(B25,E25:F25)</f>
+        <v>1.9433132342180166</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1.6369721017133001</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>6.9576987187423001E-3</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3127,8 +3991,34 @@
       <c r="I26">
         <v>1.7509994123267101</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="5">
+        <v>25</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="7">
+        <f>AVERAGE(C26:D26)</f>
+        <v>2.29432020448577</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1.3652356471093099</v>
+      </c>
+      <c r="O26" s="7">
+        <f>AVERAGE(B26,E26:F26)</f>
+        <v>2.85413112042469</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1.9400927800516199</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>6.6450667630195599E-4</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3154,8 +4044,34 @@
       <c r="I27">
         <v>1.9456796636301299</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="5">
+        <v>26</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7">
+        <f>AVERAGE(C27:D27)</f>
+        <v>2.45701992481187</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1.50155956894982</v>
+      </c>
+      <c r="O27" s="7">
+        <f>AVERAGE(B27,E27:F27)</f>
+        <v>3.0053833450911704</v>
+      </c>
+      <c r="P27" s="7">
+        <v>2.17100114486411</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1.72717715353966E-3</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3181,8 +4097,34 @@
       <c r="I28">
         <v>1.13935328045797</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="5">
+        <v>27</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="7">
+        <f>AVERAGE(C28:D28)</f>
+        <v>1.51434131898988</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.73257095504382996</v>
+      </c>
+      <c r="O28" s="7">
+        <f>AVERAGE(B28,E28:F28)</f>
+        <v>2.0964752275423764</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1.2953963901932</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>3.5172723196736201E-4</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3208,8 +4150,34 @@
       <c r="I29">
         <v>1.06414208751428</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="5">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <f>AVERAGE(C29:D29)</f>
+        <v>1.7535882219349701</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.91843490416801798</v>
+      </c>
+      <c r="O29" s="7">
+        <f>AVERAGE(B29,E29:F29)</f>
+        <v>2.0439579770148169</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1.14013050267495</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1.7826055603975498E-2</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3235,8 +4203,34 @@
       <c r="I30">
         <v>1.64735494041761</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="5">
+        <v>29</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="7">
+        <f>AVERAGE(C30:D30)</f>
+        <v>1.3381967565808099</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0.88419153563600905</v>
+      </c>
+      <c r="O30" s="7">
+        <f>AVERAGE(B30,E30:F30)</f>
+        <v>1.9079759781268202</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1.9719613401035201</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>1.33749049118575E-3</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3262,8 +4256,34 @@
       <c r="I31">
         <v>1.6083555132895999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="5">
+        <v>30</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="7">
+        <f>AVERAGE(C31:D31)</f>
+        <v>1.4768960308346051</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0.99388018034163494</v>
+      </c>
+      <c r="O31" s="7">
+        <f>AVERAGE(B31,E31:F31)</f>
+        <v>2.2392314745844035</v>
+      </c>
+      <c r="P31" s="7">
+        <v>1.85365934847962</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>4.26612406173842E-7</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3289,8 +4309,34 @@
       <c r="I32">
         <v>1.40134717397839</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="5">
+        <v>31</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="7">
+        <f>AVERAGE(C32:D32)</f>
+        <v>1.7349826111643001</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1.0449366831099001</v>
+      </c>
+      <c r="O32" s="7">
+        <f>AVERAGE(B32,E32:F32)</f>
+        <v>2.2337372289002868</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1.5681490642496101</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>1.3960410332135301E-4</v>
+      </c>
+      <c r="R32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3316,8 +4362,34 @@
       <c r="I33">
         <v>1.4369104908858501</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="5">
+        <v>32</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="7">
+        <f>AVERAGE(C33:D33)</f>
+        <v>1.54965085845691</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1.0493467687181699</v>
+      </c>
+      <c r="O33" s="7">
+        <f>AVERAGE(B33,E33:F33)</f>
+        <v>2.2866196717529901</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1.58209000235853</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>6.2942622685913996E-9</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3349,10 +4421,40 @@
         <f t="shared" si="1"/>
         <v>1.1577587669241396</v>
       </c>
+      <c r="K34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12">
+        <f>AVERAGE(M2:M33)</f>
+        <v>1.3336809597887682</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" ref="N34" si="2">AVERAGE(N2:N33)</f>
+        <v>0.78921490584187626</v>
+      </c>
+      <c r="O34" s="12">
+        <f>AVERAGE(O2:O33)</f>
+        <v>1.7343568281204833</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" ref="P34" si="3">AVERAGE(P2:P33)</f>
+        <v>1.3045854254772822</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3360,13 +4462,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366FFB22-9D07-4899-BBED-03AC8511902B}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +4494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3419,7 +4521,7 @@
         <v>1.06465209906873</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3446,7 +4548,7 @@
         <v>1.27278536551903</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3473,7 +4575,7 @@
         <v>1.5626052462517701</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3500,7 +4602,7 @@
         <v>1.36439674796511</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3527,7 +4629,7 @@
         <v>1.1200927630414701</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3554,7 +4656,7 @@
         <v>1.4968320934666599</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3581,7 +4683,7 @@
         <v>1.6987320215000199</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3608,7 +4710,7 @@
         <v>1.64701712174252</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3635,7 +4737,7 @@
         <v>1.8239493921639101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3662,7 +4764,7 @@
         <v>1.9795758573717801</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3689,7 +4791,7 @@
         <v>1.0858846251622001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3716,7 +4818,7 @@
         <v>1.0478918728634099</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3743,7 +4845,7 @@
         <v>1.1136308845210601</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3770,7 +4872,7 @@
         <v>1.7447479196736</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3797,7 +4899,7 @@
         <v>3.2830159092420401</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3824,7 +4926,7 @@
         <v>3.4878942404055202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3851,7 +4953,7 @@
         <v>2.47478932363481</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3878,7 +4980,7 @@
         <v>2.1049065028885598</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3905,7 +5007,7 @@
         <v>1.35039892606086</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3932,7 +5034,7 @@
         <v>1.1266814663381</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3959,7 +5061,7 @@
         <v>1.71723570444716</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3986,7 +5088,7 @@
         <v>2.3796312557118902</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4013,7 +5115,7 @@
         <v>2.1708866002612601</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4040,7 +5142,7 @@
         <v>2.2426001328154501</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4067,7 +5169,7 @@
         <v>2.7147512026080398</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4094,7 +5196,7 @@
         <v>3.3009556103950799</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4121,7 +5223,7 @@
         <v>1.90514942032324</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4148,7 +5250,7 @@
         <v>1.8008438450822799</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4175,7 +5277,7 @@
         <v>2.9401662236610502</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4202,7 +5304,7 @@
         <v>3.40703044893228</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4229,7 +5331,7 @@
         <v>1.8922613788960001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4256,7 +5358,7 @@
         <v>1.85376743407125</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4299,13 +5401,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A83CBD-C2F6-4701-B80B-274E070A85C7}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +5442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4379,7 +5481,7 @@
         <v>5.9483998854798203</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4418,7 +5520,7 @@
         <v>5.4872760594564278</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4457,7 +5559,7 @@
         <v>5.8912741062175504</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4496,7 +5598,7 @@
         <v>9.0516309019046925</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4535,7 +5637,7 @@
         <v>9.2011157559760051</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4574,7 +5676,7 @@
         <v>7.1008115242599121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4613,7 +5715,7 @@
         <v>8.2448940809842313</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4652,7 +5754,7 @@
         <v>9.1960079959657932</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4691,7 +5793,7 @@
         <v>18.701367032844278</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4730,7 +5832,7 @@
         <v>26.520124715944121</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4769,7 +5871,7 @@
         <v>17.303080640058297</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4808,7 +5910,7 @@
         <v>16.438621347915962</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4847,7 +5949,7 @@
         <v>11.558853558289716</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4886,7 +5988,7 @@
         <v>15.072165104880764</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -4925,7 +6027,7 @@
         <v>14.955236493405751</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4964,7 +6066,7 @@
         <v>6.7556976156611936</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5003,7 +6105,7 @@
         <v>5.6684800489262566</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5042,7 +6144,7 @@
         <v>6.027574286231677</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -5081,7 +6183,7 @@
         <v>6.4398178121637102</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -5120,7 +6222,7 @@
         <v>11.162345872940117</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5159,7 +6261,7 @@
         <v>5.7895453600350804</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
@@ -5198,7 +6300,7 @@
         <v>6.2292983793128887</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -5237,7 +6339,7 @@
         <v>13.524469185776574</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -5276,7 +6378,7 @@
         <v>7.6908199979183705</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -5315,7 +6417,7 @@
         <v>8.8215198930980421</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -5354,7 +6456,7 @@
         <v>7.6741788805597535</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5393,7 +6495,7 @@
         <v>6.2624652911382483</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9</v>
       </c>
@@ -5432,7 +6534,7 @@
         <v>8.0333861100661164</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -5471,7 +6573,7 @@
         <v>6.1264491595503605</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -5510,7 +6612,7 @@
         <v>6.7882481936117554</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5549,7 +6651,7 @@
         <v>10.420172620386674</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5588,7 +6690,7 @@
         <v>6.6570118461302643</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>11</v>
       </c>
@@ -5627,7 +6729,7 @@
         <v>9.9821525964411908</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -5666,7 +6768,7 @@
         <v>11.483204946253755</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>12</v>
       </c>
@@ -5705,7 +6807,7 @@
         <v>9.6238366087223053</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -5744,7 +6846,7 @@
         <v>6.1320789228329913</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>13</v>
       </c>
@@ -5783,7 +6885,7 @@
         <v>10.309446490076599</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>13</v>
       </c>
@@ -5822,7 +6924,7 @@
         <v>6.3377874412404891</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>19</v>
       </c>
@@ -5861,7 +6963,7 @@
         <v>5.992751883478423</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>22</v>
       </c>
@@ -5900,7 +7002,7 @@
         <v>29.555515332688593</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>23</v>
       </c>
@@ -5939,7 +7041,7 @@
         <v>10.632059695611453</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>23</v>
       </c>
@@ -5978,7 +7080,7 @@
         <v>6.4955405201438898</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23</v>
       </c>
@@ -6017,7 +7119,7 @@
         <v>7.7322727371387856</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>24</v>
       </c>
@@ -6056,7 +7158,7 @@
         <v>10.839442179214863</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>25</v>
       </c>
@@ -6095,7 +7197,7 @@
         <v>12.881612048931689</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>25</v>
       </c>
@@ -6134,7 +7236,7 @@
         <v>9.7041235497152325</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>25</v>
       </c>
@@ -6173,7 +7275,7 @@
         <v>10.348940603026389</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>26</v>
       </c>
@@ -6212,7 +7314,7 @@
         <v>8.6002722053990848</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>26</v>
       </c>
@@ -6251,7 +7353,7 @@
         <v>9.9818381899676965</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -6274,7 +7376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -6297,7 +7399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -6320,7 +7422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -6343,7 +7445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -6366,7 +7468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -6389,7 +7491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -6412,7 +7514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -6435,7 +7537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -6458,7 +7560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -6481,7 +7583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -6504,7 +7606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -6527,7 +7629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -6550,7 +7652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -6573,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -6596,7 +7698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -6619,7 +7721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -6642,7 +7744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -6665,7 +7767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6688,7 +7790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -6711,7 +7813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -6734,7 +7836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -6757,7 +7859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -6780,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -6803,7 +7905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +7928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -6849,7 +7951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -6872,7 +7974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6895,7 +7997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -6918,7 +8020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -6941,7 +8043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -6964,7 +8066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -6987,7 +8089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -7010,7 +8112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -7033,7 +8135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -7056,7 +8158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -7079,7 +8181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -7102,7 +8204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -7125,7 +8227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7148,7 +8250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -7171,7 +8273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -7194,7 +8296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -7217,7 +8319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +8342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -7263,7 +8365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -7286,7 +8388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -7309,7 +8411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +8434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -7355,7 +8457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -7384,4 +8486,2413 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34F46FA-F3ED-429D-9771-FA80AA7553CD}">
+  <dimension ref="A1:Y35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V16" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="N1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.94572524004485203</v>
+      </c>
+      <c r="C3">
+        <v>0.69230923537837696</v>
+      </c>
+      <c r="D3">
+        <v>0.67394102308253301</v>
+      </c>
+      <c r="E3">
+        <v>0.614996866875964</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.77065849950192067</v>
+      </c>
+      <c r="H3">
+        <v>0.96941822653966203</v>
+      </c>
+      <c r="I3">
+        <v>0.96445072884183503</v>
+      </c>
+      <c r="J3">
+        <v>0.94110542324569701</v>
+      </c>
+      <c r="K3">
+        <v>0.96406941440795701</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(H3:J3)</f>
+        <v>0.95832479287573136</v>
+      </c>
+      <c r="N3">
+        <v>0.93450625705354695</v>
+      </c>
+      <c r="O3">
+        <v>0.58687515001493795</v>
+      </c>
+      <c r="P3">
+        <v>0.500040087638426</v>
+      </c>
+      <c r="Q3">
+        <v>0.474018535589253</v>
+      </c>
+      <c r="R3">
+        <f>AVERAGE(N3:P3)</f>
+        <v>0.67380716490230375</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="14">
+        <f>F3</f>
+        <v>0.77065849950192067</v>
+      </c>
+      <c r="X3" s="14">
+        <f>L3</f>
+        <v>0.95832479287573136</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>R3</f>
+        <v>0.67380716490230375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.94484436247604298</v>
+      </c>
+      <c r="C4">
+        <v>0.83004397624034998</v>
+      </c>
+      <c r="D4">
+        <v>0.90977449660009502</v>
+      </c>
+      <c r="E4">
+        <v>0.801253316333572</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F34" si="0">AVERAGE(B4:D4)</f>
+        <v>0.89488761177216258</v>
+      </c>
+      <c r="H4">
+        <v>0.97261928034044698</v>
+      </c>
+      <c r="I4">
+        <v>0.95374129209307101</v>
+      </c>
+      <c r="J4">
+        <v>0.96711445545818098</v>
+      </c>
+      <c r="K4">
+        <v>0.94610977143640795</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L34" si="1">AVERAGE(H4:J4)</f>
+        <v>0.96449167596389973</v>
+      </c>
+      <c r="N4">
+        <v>0.92377866481557902</v>
+      </c>
+      <c r="O4">
+        <v>0.76881082696931002</v>
+      </c>
+      <c r="P4">
+        <v>0.87149136701024699</v>
+      </c>
+      <c r="Q4">
+        <v>0.72478764673601204</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R34" si="2">AVERAGE(N4:P4)</f>
+        <v>0.85469361959837864</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="14">
+        <f>F4</f>
+        <v>0.89488761177216258</v>
+      </c>
+      <c r="X4" s="14">
+        <f>L4</f>
+        <v>0.96449167596389973</v>
+      </c>
+      <c r="Y4" s="14">
+        <f>R4</f>
+        <v>0.85469361959837864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.98011052970758406</v>
+      </c>
+      <c r="C5">
+        <v>0.921176929536068</v>
+      </c>
+      <c r="D5">
+        <v>0.83041694770236396</v>
+      </c>
+      <c r="E5">
+        <v>0.70836165999187795</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.91056813564867201</v>
+      </c>
+      <c r="H5">
+        <v>0.99068484284009195</v>
+      </c>
+      <c r="I5">
+        <v>0.96709013146558398</v>
+      </c>
+      <c r="J5">
+        <v>0.96525556569946203</v>
+      </c>
+      <c r="K5">
+        <v>0.91957040086814001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.97434351333504587</v>
+      </c>
+      <c r="N5">
+        <v>0.97528286850771995</v>
+      </c>
+      <c r="O5">
+        <v>0.88915871906593502</v>
+      </c>
+      <c r="P5">
+        <v>0.76516859756597799</v>
+      </c>
+      <c r="Q5">
+        <v>0.61316686261694298</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.87653672837987762</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="14">
+        <f>F5</f>
+        <v>0.91056813564867201</v>
+      </c>
+      <c r="X5" s="14">
+        <f>L5</f>
+        <v>0.97434351333504587</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>R5</f>
+        <v>0.87653672837987762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.91169962517042902</v>
+      </c>
+      <c r="C6">
+        <v>0.84297281067031804</v>
+      </c>
+      <c r="D6">
+        <v>0.76744793541339396</v>
+      </c>
+      <c r="E6">
+        <v>0.68304384488247505</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.84070679041804697</v>
+      </c>
+      <c r="H6">
+        <v>0.962127399418233</v>
+      </c>
+      <c r="I6">
+        <v>0.93583929501743501</v>
+      </c>
+      <c r="J6">
+        <v>0.85450955883616297</v>
+      </c>
+      <c r="K6">
+        <v>0.81234867771546504</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.91749208442394359</v>
+      </c>
+      <c r="N6">
+        <v>0.88270798915543702</v>
+      </c>
+      <c r="O6">
+        <v>0.801204637447686</v>
+      </c>
+      <c r="P6">
+        <v>0.73184685434361396</v>
+      </c>
+      <c r="Q6">
+        <v>0.59489037490402896</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0.80525316031557903</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="14">
+        <f>F6</f>
+        <v>0.84070679041804697</v>
+      </c>
+      <c r="X6" s="14">
+        <f>L6</f>
+        <v>0.91749208442394359</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>R6</f>
+        <v>0.80525316031557903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.80279328214024903</v>
+      </c>
+      <c r="C7">
+        <v>0.48731900974746101</v>
+      </c>
+      <c r="D7">
+        <v>0.41433642478392801</v>
+      </c>
+      <c r="E7">
+        <v>0.28424637394008001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.56814957222387941</v>
+      </c>
+      <c r="H7">
+        <v>0.89653421228748598</v>
+      </c>
+      <c r="I7">
+        <v>0.658983592361291</v>
+      </c>
+      <c r="J7">
+        <v>0.56798820934869898</v>
+      </c>
+      <c r="K7">
+        <v>0.46960160949598501</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.70783533799915865</v>
+      </c>
+      <c r="N7">
+        <v>0.75301488618032397</v>
+      </c>
+      <c r="O7">
+        <v>0.46281069514571999</v>
+      </c>
+      <c r="P7">
+        <v>0.41510894487981598</v>
+      </c>
+      <c r="Q7">
+        <v>0.26860039925527501</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0.54364484206861996</v>
+      </c>
+      <c r="U7" s="5">
+        <v>5</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="14">
+        <f>F7</f>
+        <v>0.56814957222387941</v>
+      </c>
+      <c r="X7" s="14">
+        <f>L7</f>
+        <v>0.70783533799915865</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>R7</f>
+        <v>0.54364484206861996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.84026558350308</v>
+      </c>
+      <c r="C8">
+        <v>0.81802803793219703</v>
+      </c>
+      <c r="D8">
+        <v>0.58411762574856596</v>
+      </c>
+      <c r="E8">
+        <v>0.76601380097332805</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.74747041572794759</v>
+      </c>
+      <c r="H8">
+        <v>0.86750084927063698</v>
+      </c>
+      <c r="I8">
+        <v>0.875574241340907</v>
+      </c>
+      <c r="J8">
+        <v>0.723879660176595</v>
+      </c>
+      <c r="K8">
+        <v>0.85111496559051103</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.82231825026271299</v>
+      </c>
+      <c r="N8">
+        <v>0.82323945720408498</v>
+      </c>
+      <c r="O8">
+        <v>0.79465980741881004</v>
+      </c>
+      <c r="P8">
+        <v>0.56107961967582498</v>
+      </c>
+      <c r="Q8">
+        <v>0.75238586889997905</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0.72632629476624011</v>
+      </c>
+      <c r="U8" s="5">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="14">
+        <f>F8</f>
+        <v>0.74747041572794759</v>
+      </c>
+      <c r="X8" s="14">
+        <f>L8</f>
+        <v>0.82231825026271299</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>R8</f>
+        <v>0.72632629476624011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.78583468652494703</v>
+      </c>
+      <c r="C9">
+        <v>0.83719802988428405</v>
+      </c>
+      <c r="D9">
+        <v>0.61972080206863001</v>
+      </c>
+      <c r="E9">
+        <v>0.786889320285585</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.74758450615928707</v>
+      </c>
+      <c r="H9">
+        <v>0.78886879161518497</v>
+      </c>
+      <c r="I9">
+        <v>0.93081313685307798</v>
+      </c>
+      <c r="J9">
+        <v>0.77474752499817801</v>
+      </c>
+      <c r="K9">
+        <v>0.86058973349682799</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.83147648448881373</v>
+      </c>
+      <c r="N9">
+        <v>0.77484463179126795</v>
+      </c>
+      <c r="O9">
+        <v>0.81968874777133505</v>
+      </c>
+      <c r="P9">
+        <v>0.62214326765872696</v>
+      </c>
+      <c r="Q9">
+        <v>0.80718538325059597</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0.73889221574044328</v>
+      </c>
+      <c r="U9" s="5">
+        <v>7</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="14">
+        <f>F9</f>
+        <v>0.74758450615928707</v>
+      </c>
+      <c r="X9" s="14">
+        <f>L9</f>
+        <v>0.83147648448881373</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>R9</f>
+        <v>0.73889221574044328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.93342086448414696</v>
+      </c>
+      <c r="C10">
+        <v>0.87913678386101402</v>
+      </c>
+      <c r="D10">
+        <v>0.62916744942750602</v>
+      </c>
+      <c r="E10">
+        <v>0.51614168334743304</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.81390836592422244</v>
+      </c>
+      <c r="H10">
+        <v>0.97073702212700597</v>
+      </c>
+      <c r="I10">
+        <v>0.92615913027202301</v>
+      </c>
+      <c r="J10">
+        <v>0.75764077845458999</v>
+      </c>
+      <c r="K10">
+        <v>0.68831977427560698</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.88484564361787299</v>
+      </c>
+      <c r="N10">
+        <v>0.92561999972153297</v>
+      </c>
+      <c r="O10">
+        <v>0.88108481212518897</v>
+      </c>
+      <c r="P10">
+        <v>0.58201028543960498</v>
+      </c>
+      <c r="Q10">
+        <v>0.48180790953085301</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0.79623836576210894</v>
+      </c>
+      <c r="U10" s="5">
+        <v>8</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="14">
+        <f>F10</f>
+        <v>0.81390836592422244</v>
+      </c>
+      <c r="X10" s="14">
+        <f>L10</f>
+        <v>0.88484564361787299</v>
+      </c>
+      <c r="Y10" s="14">
+        <f>R10</f>
+        <v>0.79623836576210894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.93308979806197101</v>
+      </c>
+      <c r="C11">
+        <v>0.87217959427421399</v>
+      </c>
+      <c r="D11">
+        <v>0.59791793151572803</v>
+      </c>
+      <c r="E11">
+        <v>0.47442456546339201</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.80106244128397097</v>
+      </c>
+      <c r="H11">
+        <v>0.942906729763755</v>
+      </c>
+      <c r="I11">
+        <v>0.93754333024953296</v>
+      </c>
+      <c r="J11">
+        <v>0.78878361108968098</v>
+      </c>
+      <c r="K11">
+        <v>0.80189215258429203</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.88974455703432298</v>
+      </c>
+      <c r="N11">
+        <v>0.93614475324138902</v>
+      </c>
+      <c r="O11">
+        <v>0.86765409745160704</v>
+      </c>
+      <c r="P11">
+        <v>0.64986108616655403</v>
+      </c>
+      <c r="Q11">
+        <v>0.52503062193933003</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.81788664561985003</v>
+      </c>
+      <c r="U11" s="5">
+        <v>9</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="14">
+        <f>F11</f>
+        <v>0.80106244128397097</v>
+      </c>
+      <c r="X11" s="14">
+        <f>L11</f>
+        <v>0.88974455703432298</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>R11</f>
+        <v>0.81788664561985003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.96361998818362304</v>
+      </c>
+      <c r="C12">
+        <v>0.78186362577648905</v>
+      </c>
+      <c r="D12">
+        <v>0.96319844812134603</v>
+      </c>
+      <c r="E12">
+        <v>0.76366819862839297</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.90289402069381941</v>
+      </c>
+      <c r="H12">
+        <v>0.98272990135882099</v>
+      </c>
+      <c r="I12">
+        <v>0.83940810686191103</v>
+      </c>
+      <c r="J12">
+        <v>0.98533106620054101</v>
+      </c>
+      <c r="K12">
+        <v>0.825716097367441</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.93582302480709101</v>
+      </c>
+      <c r="N12">
+        <v>0.95162023620801195</v>
+      </c>
+      <c r="O12">
+        <v>0.73101631944312795</v>
+      </c>
+      <c r="P12">
+        <v>0.94722742733020304</v>
+      </c>
+      <c r="Q12">
+        <v>0.70482364705024803</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.87662132766044765</v>
+      </c>
+      <c r="U12" s="5">
+        <v>10</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="14">
+        <f>F12</f>
+        <v>0.90289402069381941</v>
+      </c>
+      <c r="X12" s="14">
+        <f>L12</f>
+        <v>0.93582302480709101</v>
+      </c>
+      <c r="Y12" s="14">
+        <f>R12</f>
+        <v>0.87662132766044765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.81400190858523003</v>
+      </c>
+      <c r="C13">
+        <v>0.84802906490326002</v>
+      </c>
+      <c r="D13">
+        <v>0.78610068325849003</v>
+      </c>
+      <c r="E13">
+        <v>0.72149445411814495</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.81604388558232666</v>
+      </c>
+      <c r="H13">
+        <v>0.89392099026627603</v>
+      </c>
+      <c r="I13">
+        <v>0.83096849072513002</v>
+      </c>
+      <c r="J13">
+        <v>0.75389713228545896</v>
+      </c>
+      <c r="K13">
+        <v>0.70707551939511304</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.82626220442562159</v>
+      </c>
+      <c r="N13">
+        <v>0.76133056485291495</v>
+      </c>
+      <c r="O13">
+        <v>0.82976470219558696</v>
+      </c>
+      <c r="P13">
+        <v>0.80196478963411799</v>
+      </c>
+      <c r="Q13">
+        <v>0.73816118170795098</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0.79768668556087319</v>
+      </c>
+      <c r="U13" s="5">
+        <v>11</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="14">
+        <f>F13</f>
+        <v>0.81604388558232666</v>
+      </c>
+      <c r="X13" s="14">
+        <f>L13</f>
+        <v>0.82626220442562159</v>
+      </c>
+      <c r="Y13" s="14">
+        <f>R13</f>
+        <v>0.79768668556087319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.75356438049599594</v>
+      </c>
+      <c r="C14">
+        <v>0.85304088659918498</v>
+      </c>
+      <c r="D14">
+        <v>0.78732512005456401</v>
+      </c>
+      <c r="E14">
+        <v>0.73586669026474505</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.79797679571658164</v>
+      </c>
+      <c r="H14">
+        <v>0.84277445791677996</v>
+      </c>
+      <c r="I14">
+        <v>0.91795387573847298</v>
+      </c>
+      <c r="J14">
+        <v>0.78641812491247598</v>
+      </c>
+      <c r="K14">
+        <v>0.79597617301662604</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.84904881952257638</v>
+      </c>
+      <c r="N14">
+        <v>0.69633984114674896</v>
+      </c>
+      <c r="O14">
+        <v>0.81250461338060098</v>
+      </c>
+      <c r="P14">
+        <v>0.78755190573584999</v>
+      </c>
+      <c r="Q14">
+        <v>0.73879354724845203</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0.76546545342106664</v>
+      </c>
+      <c r="U14" s="5">
+        <v>12</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="14">
+        <f>F14</f>
+        <v>0.79797679571658164</v>
+      </c>
+      <c r="X14" s="14">
+        <f>L14</f>
+        <v>0.84904881952257638</v>
+      </c>
+      <c r="Y14" s="14">
+        <f>R14</f>
+        <v>0.76546545342106664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.74548250038098396</v>
+      </c>
+      <c r="C15">
+        <v>0.82204239694094206</v>
+      </c>
+      <c r="D15">
+        <v>0.77991472644511695</v>
+      </c>
+      <c r="E15">
+        <v>0.68732699642018302</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.78247987458901436</v>
+      </c>
+      <c r="H15">
+        <v>0.72797184958389805</v>
+      </c>
+      <c r="I15">
+        <v>0.87569364981243902</v>
+      </c>
+      <c r="J15">
+        <v>0.83328117581175798</v>
+      </c>
+      <c r="K15">
+        <v>0.80352250343317699</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.81231555840269831</v>
+      </c>
+      <c r="N15">
+        <v>0.76507121207119499</v>
+      </c>
+      <c r="O15">
+        <v>0.80832349227106504</v>
+      </c>
+      <c r="P15">
+        <v>0.73598356983661195</v>
+      </c>
+      <c r="Q15">
+        <v>0.63468740981958305</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.7697927580596241</v>
+      </c>
+      <c r="U15" s="5">
+        <v>13</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="14">
+        <f>F15</f>
+        <v>0.78247987458901436</v>
+      </c>
+      <c r="X15" s="14">
+        <f>L15</f>
+        <v>0.81231555840269831</v>
+      </c>
+      <c r="Y15" s="14">
+        <f>R15</f>
+        <v>0.7697927580596241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.95501754724940602</v>
+      </c>
+      <c r="C16">
+        <v>0.50383016058364805</v>
+      </c>
+      <c r="D16">
+        <v>0.81283022479686595</v>
+      </c>
+      <c r="E16">
+        <v>0.47536188668635898</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.75722597754330667</v>
+      </c>
+      <c r="H16">
+        <v>0.95741986204679996</v>
+      </c>
+      <c r="I16">
+        <v>0.66469741072877098</v>
+      </c>
+      <c r="J16">
+        <v>0.88256033983239601</v>
+      </c>
+      <c r="K16">
+        <v>0.62231236598228701</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.83489253753598902</v>
+      </c>
+      <c r="N16">
+        <v>0.94648289150606002</v>
+      </c>
+      <c r="O16">
+        <v>0.47938947296780199</v>
+      </c>
+      <c r="P16">
+        <v>0.843583257291043</v>
+      </c>
+      <c r="Q16">
+        <v>0.45081547758195101</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0.75648520725496837</v>
+      </c>
+      <c r="U16" s="5">
+        <v>14</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="14">
+        <f>F16</f>
+        <v>0.75722597754330667</v>
+      </c>
+      <c r="X16" s="14">
+        <f>L16</f>
+        <v>0.83489253753598902</v>
+      </c>
+      <c r="Y16" s="14">
+        <f>R16</f>
+        <v>0.75648520725496837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.95888963386711401</v>
+      </c>
+      <c r="C17">
+        <v>0.62412113641910705</v>
+      </c>
+      <c r="D17">
+        <v>0.95617015089500801</v>
+      </c>
+      <c r="E17">
+        <v>0.95033058305235296</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.84639364039374299</v>
+      </c>
+      <c r="H17">
+        <v>0.97730865248090903</v>
+      </c>
+      <c r="I17">
+        <v>0.96121151129458904</v>
+      </c>
+      <c r="J17">
+        <v>0.97663449661735702</v>
+      </c>
+      <c r="K17">
+        <v>0.980320399096413</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.97171822013095177</v>
+      </c>
+      <c r="N17">
+        <v>0.94522834531203703</v>
+      </c>
+      <c r="O17">
+        <v>0.44971289689380201</v>
+      </c>
+      <c r="P17">
+        <v>0.93985930348190505</v>
+      </c>
+      <c r="Q17">
+        <v>0.93442347184538999</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0.77826684856258144</v>
+      </c>
+      <c r="U17" s="5">
+        <v>15</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="14">
+        <f>F17</f>
+        <v>0.84639364039374299</v>
+      </c>
+      <c r="X17" s="14">
+        <f>L17</f>
+        <v>0.97171822013095177</v>
+      </c>
+      <c r="Y17" s="14">
+        <f>R17</f>
+        <v>0.77826684856258144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.96755926289536098</v>
+      </c>
+      <c r="C18">
+        <v>0.60177182889706005</v>
+      </c>
+      <c r="D18">
+        <v>0.95375514667160199</v>
+      </c>
+      <c r="E18">
+        <v>0.94977768647014704</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.84102874615467427</v>
+      </c>
+      <c r="H18">
+        <v>0.97463188848404103</v>
+      </c>
+      <c r="I18">
+        <v>0.95672736119227697</v>
+      </c>
+      <c r="J18">
+        <v>0.97977489425946396</v>
+      </c>
+      <c r="K18">
+        <v>0.98224778172028904</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.97037804797859406</v>
+      </c>
+      <c r="N18">
+        <v>0.95376477759471701</v>
+      </c>
+      <c r="O18">
+        <v>0.40882124546869197</v>
+      </c>
+      <c r="P18">
+        <v>0.93075731041323095</v>
+      </c>
+      <c r="Q18">
+        <v>0.93167374091833499</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0.76444777782554674</v>
+      </c>
+      <c r="U18" s="5">
+        <v>16</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="14">
+        <f>F18</f>
+        <v>0.84102874615467427</v>
+      </c>
+      <c r="X18" s="14">
+        <f>L18</f>
+        <v>0.97037804797859406</v>
+      </c>
+      <c r="Y18" s="14">
+        <f>R18</f>
+        <v>0.76444777782554674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.92388650764712199</v>
+      </c>
+      <c r="C19">
+        <v>0.65759745254008695</v>
+      </c>
+      <c r="D19">
+        <v>0.90956159113232204</v>
+      </c>
+      <c r="E19">
+        <v>0.956795547801776</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.83034851710651036</v>
+      </c>
+      <c r="H19">
+        <v>0.95997436602220299</v>
+      </c>
+      <c r="I19">
+        <v>0.96457018324759203</v>
+      </c>
+      <c r="J19">
+        <v>0.97691521893758604</v>
+      </c>
+      <c r="K19">
+        <v>0.98810254396250297</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.96715325606912705</v>
+      </c>
+      <c r="N19">
+        <v>0.89982835321820098</v>
+      </c>
+      <c r="O19">
+        <v>0.52372601145589004</v>
+      </c>
+      <c r="P19">
+        <v>0.86210800889654204</v>
+      </c>
+      <c r="Q19">
+        <v>0.94003849403737805</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0.76188745785687784</v>
+      </c>
+      <c r="U19" s="5">
+        <v>17</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="14">
+        <f>F19</f>
+        <v>0.83034851710651036</v>
+      </c>
+      <c r="X19" s="14">
+        <f>L19</f>
+        <v>0.96715325606912705</v>
+      </c>
+      <c r="Y19" s="14">
+        <f>R19</f>
+        <v>0.76188745785687784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.96404567663118401</v>
+      </c>
+      <c r="C20">
+        <v>0.81712768669894997</v>
+      </c>
+      <c r="D20">
+        <v>0.94220531171787403</v>
+      </c>
+      <c r="E20">
+        <v>0.97077098773929305</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.9077928916826693</v>
+      </c>
+      <c r="H20">
+        <v>0.97730490504481204</v>
+      </c>
+      <c r="I20">
+        <v>0.95885231849191799</v>
+      </c>
+      <c r="J20">
+        <v>0.97824649392213503</v>
+      </c>
+      <c r="K20">
+        <v>0.99164227567501795</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.97146790581962172</v>
+      </c>
+      <c r="N20">
+        <v>0.95777699056496501</v>
+      </c>
+      <c r="O20">
+        <v>0.73335119703594198</v>
+      </c>
+      <c r="P20">
+        <v>0.92583636082737997</v>
+      </c>
+      <c r="Q20">
+        <v>0.95634735733485698</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>0.87232151614276232</v>
+      </c>
+      <c r="U20" s="5">
+        <v>18</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="14">
+        <f>F20</f>
+        <v>0.9077928916826693</v>
+      </c>
+      <c r="X20" s="14">
+        <f>L20</f>
+        <v>0.97146790581962172</v>
+      </c>
+      <c r="Y20" s="14">
+        <f>R20</f>
+        <v>0.87232151614276232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.98277992089747401</v>
+      </c>
+      <c r="C21">
+        <v>0.94936534720071697</v>
+      </c>
+      <c r="D21">
+        <v>0.92242608320106401</v>
+      </c>
+      <c r="E21">
+        <v>0.93396148910479604</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.95152378376641833</v>
+      </c>
+      <c r="H21">
+        <v>0.98044321122284805</v>
+      </c>
+      <c r="I21">
+        <v>0.98300183006460096</v>
+      </c>
+      <c r="J21">
+        <v>0.96295820339718796</v>
+      </c>
+      <c r="K21">
+        <v>0.96656893363442498</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.97546774822821236</v>
+      </c>
+      <c r="N21">
+        <v>0.98181981170350896</v>
+      </c>
+      <c r="O21">
+        <v>0.928184383891554</v>
+      </c>
+      <c r="P21">
+        <v>0.90037928470034501</v>
+      </c>
+      <c r="Q21">
+        <v>0.92332806862918804</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0.93679449343180277</v>
+      </c>
+      <c r="U21" s="5">
+        <v>19</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="14">
+        <f>F21</f>
+        <v>0.95152378376641833</v>
+      </c>
+      <c r="X21" s="14">
+        <f>L21</f>
+        <v>0.97546774822821236</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>R21</f>
+        <v>0.93679449343180277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.94735694775189505</v>
+      </c>
+      <c r="C22">
+        <v>0.88504689595633901</v>
+      </c>
+      <c r="D22">
+        <v>0.93459902899694702</v>
+      </c>
+      <c r="E22">
+        <v>0.88086879257705397</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.92233429090172703</v>
+      </c>
+      <c r="H22">
+        <v>0.982706171487017</v>
+      </c>
+      <c r="I22">
+        <v>0.97163317193632404</v>
+      </c>
+      <c r="J22">
+        <v>0.98270713825006595</v>
+      </c>
+      <c r="K22">
+        <v>0.97001469734601797</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.97901549389113562</v>
+      </c>
+      <c r="N22">
+        <v>0.92648036554277302</v>
+      </c>
+      <c r="O22">
+        <v>0.82767278886206397</v>
+      </c>
+      <c r="P22">
+        <v>0.90295389222642797</v>
+      </c>
+      <c r="Q22">
+        <v>0.82164581119071001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>0.88570234887708832</v>
+      </c>
+      <c r="U22" s="5">
+        <v>20</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="14">
+        <f>F22</f>
+        <v>0.92233429090172703</v>
+      </c>
+      <c r="X22" s="14">
+        <f>L22</f>
+        <v>0.97901549389113562</v>
+      </c>
+      <c r="Y22" s="14">
+        <f>R22</f>
+        <v>0.88570234887708832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.88532818446342798</v>
+      </c>
+      <c r="C23">
+        <v>0.92311879456315005</v>
+      </c>
+      <c r="D23">
+        <v>0.90494087869482498</v>
+      </c>
+      <c r="E23">
+        <v>0.96240836685087805</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.90446261924046778</v>
+      </c>
+      <c r="H23">
+        <v>0.94905379782070898</v>
+      </c>
+      <c r="I23">
+        <v>0.98177656464077101</v>
+      </c>
+      <c r="J23">
+        <v>0.950941975688255</v>
+      </c>
+      <c r="K23">
+        <v>0.98163525709460697</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.960590779383245</v>
+      </c>
+      <c r="N23">
+        <v>0.84559439101464295</v>
+      </c>
+      <c r="O23">
+        <v>0.88833514090662502</v>
+      </c>
+      <c r="P23">
+        <v>0.88443802503263602</v>
+      </c>
+      <c r="Q23">
+        <v>0.95162618824371503</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0.87278918565130137</v>
+      </c>
+      <c r="U23" s="5">
+        <v>21</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="14">
+        <f>F23</f>
+        <v>0.90446261924046778</v>
+      </c>
+      <c r="X23" s="14">
+        <f>L23</f>
+        <v>0.960590779383245</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>R23</f>
+        <v>0.87278918565130137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.61781369880261106</v>
+      </c>
+      <c r="C24">
+        <v>0.88669423057182795</v>
+      </c>
+      <c r="D24">
+        <v>0.82774717273763698</v>
+      </c>
+      <c r="E24">
+        <v>0.91088742567330605</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.77741836737069203</v>
+      </c>
+      <c r="H24">
+        <v>0.90111722098873104</v>
+      </c>
+      <c r="I24">
+        <v>0.975406929711926</v>
+      </c>
+      <c r="J24">
+        <v>0.98194756023311303</v>
+      </c>
+      <c r="K24">
+        <v>0.96384922959700003</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.95282390364459013</v>
+      </c>
+      <c r="N24">
+        <v>0.57028672845108197</v>
+      </c>
+      <c r="O24">
+        <v>0.83071086524635995</v>
+      </c>
+      <c r="P24">
+        <v>0.76723779174766904</v>
+      </c>
+      <c r="Q24">
+        <v>0.90657136768640301</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0.72274512848170369</v>
+      </c>
+      <c r="U24" s="5">
+        <v>22</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="14">
+        <f>F24</f>
+        <v>0.77741836737069203</v>
+      </c>
+      <c r="X24" s="14">
+        <f>L24</f>
+        <v>0.95282390364459013</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>R24</f>
+        <v>0.72274512848170369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.67544037872411</v>
+      </c>
+      <c r="C25">
+        <v>0.87764525775517099</v>
+      </c>
+      <c r="D25">
+        <v>0.71295097168472299</v>
+      </c>
+      <c r="E25">
+        <v>0.50938989461186301</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.75534553605466803</v>
+      </c>
+      <c r="H25">
+        <v>0.84575171315174302</v>
+      </c>
+      <c r="I25">
+        <v>0.93680183072646195</v>
+      </c>
+      <c r="J25">
+        <v>0.84615624035544101</v>
+      </c>
+      <c r="K25">
+        <v>0.82598695053704596</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.87623659474454862</v>
+      </c>
+      <c r="N25">
+        <v>0.57096539094624899</v>
+      </c>
+      <c r="O25">
+        <v>0.85761252184967596</v>
+      </c>
+      <c r="P25">
+        <v>0.68888114758282704</v>
+      </c>
+      <c r="Q25">
+        <v>0.41384771318920599</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0.70581968679291729</v>
+      </c>
+      <c r="U25" s="5">
+        <v>23</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W25" s="14">
+        <f>F25</f>
+        <v>0.75534553605466803</v>
+      </c>
+      <c r="X25" s="14">
+        <f>L25</f>
+        <v>0.87623659474454862</v>
+      </c>
+      <c r="Y25" s="14">
+        <f>R25</f>
+        <v>0.70581968679291729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.50010946897193898</v>
+      </c>
+      <c r="C26">
+        <v>0.81096904172766804</v>
+      </c>
+      <c r="D26">
+        <v>0.67334998204711505</v>
+      </c>
+      <c r="E26">
+        <v>0.46882586970456303</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.66147616424890732</v>
+      </c>
+      <c r="H26">
+        <v>0.88904195428873201</v>
+      </c>
+      <c r="I26">
+        <v>0.97024197377986698</v>
+      </c>
+      <c r="J26">
+        <v>0.883428838151469</v>
+      </c>
+      <c r="K26">
+        <v>0.91476056771316605</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.91423758874002259</v>
+      </c>
+      <c r="N26">
+        <v>0.48818766672004099</v>
+      </c>
+      <c r="O26">
+        <v>0.81505324225820697</v>
+      </c>
+      <c r="P26">
+        <v>0.60785836989805897</v>
+      </c>
+      <c r="Q26">
+        <v>0.43927214511969598</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0.63703309295876898</v>
+      </c>
+      <c r="U26" s="5">
+        <v>24</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="14">
+        <f>F26</f>
+        <v>0.66147616424890732</v>
+      </c>
+      <c r="X26" s="14">
+        <f>L26</f>
+        <v>0.91423758874002259</v>
+      </c>
+      <c r="Y26" s="14">
+        <f>R26</f>
+        <v>0.63703309295876898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.57119624908789002</v>
+      </c>
+      <c r="C27">
+        <v>0.830841363195578</v>
+      </c>
+      <c r="D27">
+        <v>0.71025099339262998</v>
+      </c>
+      <c r="E27">
+        <v>0.46436273895533398</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.7040962018920327</v>
+      </c>
+      <c r="H27">
+        <v>0.91712038005298402</v>
+      </c>
+      <c r="I27">
+        <v>0.98031613573826104</v>
+      </c>
+      <c r="J27">
+        <v>0.93225406479330197</v>
+      </c>
+      <c r="K27">
+        <v>0.86997619678405702</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.94323019352818227</v>
+      </c>
+      <c r="N27">
+        <v>0.56041579370830397</v>
+      </c>
+      <c r="O27">
+        <v>0.72318511837408805</v>
+      </c>
+      <c r="P27">
+        <v>0.59090997714772397</v>
+      </c>
+      <c r="Q27">
+        <v>0.38750152524577097</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>0.62483696307670533</v>
+      </c>
+      <c r="U27" s="5">
+        <v>25</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="14">
+        <f>F27</f>
+        <v>0.7040962018920327</v>
+      </c>
+      <c r="X27" s="14">
+        <f>L27</f>
+        <v>0.94323019352818227</v>
+      </c>
+      <c r="Y27" s="14">
+        <f>R27</f>
+        <v>0.62483696307670533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.42615396519405002</v>
+      </c>
+      <c r="C28">
+        <v>0.75194894970462001</v>
+      </c>
+      <c r="D28">
+        <v>0.76972922028503299</v>
+      </c>
+      <c r="E28">
+        <v>0.491360772095701</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.64927737839456767</v>
+      </c>
+      <c r="H28">
+        <v>0.97269646196713799</v>
+      </c>
+      <c r="I28">
+        <v>0.99281748829085503</v>
+      </c>
+      <c r="J28">
+        <v>0.92339647952840398</v>
+      </c>
+      <c r="K28">
+        <v>0.88210577901868403</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.96297014326213226</v>
+      </c>
+      <c r="N28">
+        <v>0.32845602211770702</v>
+      </c>
+      <c r="O28">
+        <v>0.64810188910886002</v>
+      </c>
+      <c r="P28">
+        <v>0.72566998173516895</v>
+      </c>
+      <c r="Q28">
+        <v>0.51543075210248401</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>0.5674092976539119</v>
+      </c>
+      <c r="U28" s="5">
+        <v>26</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" s="14">
+        <f>F28</f>
+        <v>0.64927737839456767</v>
+      </c>
+      <c r="X28" s="14">
+        <f>L28</f>
+        <v>0.96297014326213226</v>
+      </c>
+      <c r="Y28" s="14">
+        <f>R28</f>
+        <v>0.5674092976539119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.79481531991300403</v>
+      </c>
+      <c r="C29">
+        <v>0.87019148536893198</v>
+      </c>
+      <c r="D29">
+        <v>0.93283204359845795</v>
+      </c>
+      <c r="E29">
+        <v>0.86568039819609199</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.86594628296013132</v>
+      </c>
+      <c r="H29">
+        <v>0.87830217313516701</v>
+      </c>
+      <c r="I29">
+        <v>0.94431601007842203</v>
+      </c>
+      <c r="J29">
+        <v>0.97025817030621897</v>
+      </c>
+      <c r="K29">
+        <v>0.96049863898043197</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.93095878450660263</v>
+      </c>
+      <c r="N29">
+        <v>0.74652570903016402</v>
+      </c>
+      <c r="O29">
+        <v>0.82334536767754196</v>
+      </c>
+      <c r="P29">
+        <v>0.91631159022667097</v>
+      </c>
+      <c r="Q29">
+        <v>0.81787655264321801</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0.82872755564479228</v>
+      </c>
+      <c r="U29" s="5">
+        <v>27</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W29" s="14">
+        <f>F29</f>
+        <v>0.86594628296013132</v>
+      </c>
+      <c r="X29" s="14">
+        <f>L29</f>
+        <v>0.93095878450660263</v>
+      </c>
+      <c r="Y29" s="14">
+        <f>R29</f>
+        <v>0.82872755564479228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.78180986840840705</v>
+      </c>
+      <c r="C30">
+        <v>0.86053233727771505</v>
+      </c>
+      <c r="D30">
+        <v>0.91715616956026302</v>
+      </c>
+      <c r="E30">
+        <v>0.84218492408231105</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.85316612508212841</v>
+      </c>
+      <c r="H30">
+        <v>0.73472635050852497</v>
+      </c>
+      <c r="I30">
+        <v>0.92800292648013905</v>
+      </c>
+      <c r="J30">
+        <v>0.93628408238827499</v>
+      </c>
+      <c r="K30">
+        <v>0.90361971381055695</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.86633778645897974</v>
+      </c>
+      <c r="N30">
+        <v>0.77714505619757601</v>
+      </c>
+      <c r="O30">
+        <v>0.83026771101549002</v>
+      </c>
+      <c r="P30">
+        <v>0.90197639286859099</v>
+      </c>
+      <c r="Q30">
+        <v>0.81790497759761305</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0.83646305336055227</v>
+      </c>
+      <c r="U30" s="5">
+        <v>28</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" s="14">
+        <f>F30</f>
+        <v>0.85316612508212841</v>
+      </c>
+      <c r="X30" s="14">
+        <f>L30</f>
+        <v>0.86633778645897974</v>
+      </c>
+      <c r="Y30" s="14">
+        <f>R30</f>
+        <v>0.83646305336055227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.95856181719847</v>
+      </c>
+      <c r="C31">
+        <v>0.93487318949558595</v>
+      </c>
+      <c r="D31">
+        <v>0.948679289606987</v>
+      </c>
+      <c r="E31">
+        <v>0.94775169696881501</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.94737143210034758</v>
+      </c>
+      <c r="H31">
+        <v>0.99422499167798795</v>
+      </c>
+      <c r="I31">
+        <v>0.98149541068608404</v>
+      </c>
+      <c r="J31">
+        <v>0.99402491511980595</v>
+      </c>
+      <c r="K31">
+        <v>0.98537508915355199</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.98991510582795927</v>
+      </c>
+      <c r="N31">
+        <v>0.94721459681656595</v>
+      </c>
+      <c r="O31">
+        <v>0.90108855923962505</v>
+      </c>
+      <c r="P31">
+        <v>0.92475882775457796</v>
+      </c>
+      <c r="Q31">
+        <v>0.92489892241803295</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0.92435399460358969</v>
+      </c>
+      <c r="U31" s="5">
+        <v>29</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31" s="14">
+        <f>F31</f>
+        <v>0.94737143210034758</v>
+      </c>
+      <c r="X31" s="14">
+        <f>L31</f>
+        <v>0.98991510582795927</v>
+      </c>
+      <c r="Y31" s="14">
+        <f>R31</f>
+        <v>0.92435399460358969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.92969461377042795</v>
+      </c>
+      <c r="C32">
+        <v>0.93046777418265403</v>
+      </c>
+      <c r="D32">
+        <v>0.97807594753495097</v>
+      </c>
+      <c r="E32">
+        <v>0.934666165216958</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.94607944516267761</v>
+      </c>
+      <c r="H32">
+        <v>0.99072549631642204</v>
+      </c>
+      <c r="I32">
+        <v>0.98838179335128895</v>
+      </c>
+      <c r="J32">
+        <v>0.99367009952265495</v>
+      </c>
+      <c r="K32">
+        <v>0.98930009151355602</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.99092579639678868</v>
+      </c>
+      <c r="N32">
+        <v>0.90788304954325705</v>
+      </c>
+      <c r="O32">
+        <v>0.901760062013226</v>
+      </c>
+      <c r="P32">
+        <v>0.96944819606462695</v>
+      </c>
+      <c r="Q32">
+        <v>0.90464445965809004</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0.92636376920703667</v>
+      </c>
+      <c r="U32" s="5">
+        <v>30</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32" s="14">
+        <f>F32</f>
+        <v>0.94607944516267761</v>
+      </c>
+      <c r="X32" s="14">
+        <f>L32</f>
+        <v>0.99092579639678868</v>
+      </c>
+      <c r="Y32" s="14">
+        <f>R32</f>
+        <v>0.92636376920703667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.85583430299793695</v>
+      </c>
+      <c r="C33">
+        <v>0.56545447065596799</v>
+      </c>
+      <c r="D33">
+        <v>0.91970321409764</v>
+      </c>
+      <c r="E33">
+        <v>0.52562298729989598</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.78033066258384842</v>
+      </c>
+      <c r="H33">
+        <v>0.96167034607907498</v>
+      </c>
+      <c r="I33">
+        <v>0.70847061862025096</v>
+      </c>
+      <c r="J33">
+        <v>0.98095448770120997</v>
+      </c>
+      <c r="K33">
+        <v>0.64186767153485802</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.88369848413351193</v>
+      </c>
+      <c r="N33">
+        <v>0.80116130939963903</v>
+      </c>
+      <c r="O33">
+        <v>0.56160372425497995</v>
+      </c>
+      <c r="P33">
+        <v>0.88057749784460004</v>
+      </c>
+      <c r="Q33">
+        <v>0.54464705416111903</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>0.74778084383307297</v>
+      </c>
+      <c r="U33" s="5">
+        <v>31</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W33" s="14">
+        <f>F33</f>
+        <v>0.78033066258384842</v>
+      </c>
+      <c r="X33" s="14">
+        <f>L33</f>
+        <v>0.88369848413351193</v>
+      </c>
+      <c r="Y33" s="14">
+        <f>R33</f>
+        <v>0.74778084383307297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.87033178948157397</v>
+      </c>
+      <c r="C34">
+        <v>0.45782815798221799</v>
+      </c>
+      <c r="D34">
+        <v>0.88293698554671196</v>
+      </c>
+      <c r="E34">
+        <v>0.46214347636188002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.73703231100350131</v>
+      </c>
+      <c r="H34">
+        <v>0.93643348285498396</v>
+      </c>
+      <c r="I34">
+        <v>0.68648284135663995</v>
+      </c>
+      <c r="J34">
+        <v>0.97919109139997396</v>
+      </c>
+      <c r="K34">
+        <v>0.65372528318731704</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.86736913853719921</v>
+      </c>
+      <c r="N34">
+        <v>0.82093392450682001</v>
+      </c>
+      <c r="O34">
+        <v>0.39447103073418899</v>
+      </c>
+      <c r="P34">
+        <v>0.80377912307952204</v>
+      </c>
+      <c r="Q34">
+        <v>0.40564424417752998</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>0.67306135944017698</v>
+      </c>
+      <c r="U34" s="5">
+        <v>32</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="14">
+        <f>F34</f>
+        <v>0.73703231100350131</v>
+      </c>
+      <c r="X34" s="14">
+        <f>L34</f>
+        <v>0.86736913853719921</v>
+      </c>
+      <c r="Y34" s="14">
+        <f>R34</f>
+        <v>0.67306135944017698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="10"/>
+      <c r="W35" s="15">
+        <f>AVERAGE(W3:W34)</f>
+        <v>0.81353254027765232</v>
+      </c>
+      <c r="X35" s="15">
+        <f t="shared" ref="X35:Y35" si="3">AVERAGE(X3:X34)</f>
+        <v>0.91199092049927755</v>
+      </c>
+      <c r="Y35" s="15">
+        <f t="shared" si="3"/>
+        <v>0.77706671382848669</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>